--- a/Data/EC/NIT-8904033580.xlsx
+++ b/Data/EC/NIT-8904033580.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51912409-7A37-41BF-A169-17A14123B63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC7E535-FF0F-4559-9A1E-126889A01BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27A17137-9DC6-4CE8-B097-4554DE518236}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C3A9789-6C5F-46CC-B61C-E83F88654567}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,64 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45510945</t>
-  </si>
-  <si>
-    <t>ROSMERY LEDESMA PEREIRA</t>
-  </si>
-  <si>
-    <t>2507</t>
+    <t>45492501</t>
+  </si>
+  <si>
+    <t>ROSI EDILMA MORALES REMOLINA</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>30838782</t>
+  </si>
+  <si>
+    <t>MARIA CLAUDIA TEJERA MENDOZA</t>
+  </si>
+  <si>
+    <t>1051444421</t>
+  </si>
+  <si>
+    <t>AUDRI RAQUEL MARTINEZ VILLALBA</t>
+  </si>
+  <si>
+    <t>73557298</t>
+  </si>
+  <si>
+    <t>RUBEN DARIO MARTINEZ PEÑARANDA</t>
+  </si>
+  <si>
+    <t>30838339</t>
+  </si>
+  <si>
+    <t>YOHANA DE LA CANDELARIA MORELOS CABARCAS</t>
+  </si>
+  <si>
+    <t>1047392232</t>
+  </si>
+  <si>
+    <t>YERLY GARCIA DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>1001969899</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA VARGAS GARCIA</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
   </si>
   <si>
     <t>45754004</t>
@@ -80,13 +131,7 @@
     <t>INES PEREZ BARRIOS</t>
   </si>
   <si>
-    <t>45492501</t>
-  </si>
-  <si>
-    <t>ROSI EDILMA MORALES REMOLINA</t>
-  </si>
-  <si>
-    <t>1812</t>
+    <t>2508</t>
   </si>
   <si>
     <t>45487934</t>
@@ -101,51 +146,6 @@
     <t>CLAUDIA PATRICIA VARGAS MARTINEZ</t>
   </si>
   <si>
-    <t>30838782</t>
-  </si>
-  <si>
-    <t>MARIA CLAUDIA TEJERA MENDOZA</t>
-  </si>
-  <si>
-    <t>1047408412</t>
-  </si>
-  <si>
-    <t>KATHERINE EUGENIA ALCALA FRANCO</t>
-  </si>
-  <si>
-    <t>1051444421</t>
-  </si>
-  <si>
-    <t>AUDRI RAQUEL MARTINEZ VILLALBA</t>
-  </si>
-  <si>
-    <t>1001969899</t>
-  </si>
-  <si>
-    <t>DIANA MARCELA VARGAS GARCIA</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>73557298</t>
-  </si>
-  <si>
-    <t>RUBEN DARIO MARTINEZ PEÑARANDA</t>
-  </si>
-  <si>
     <t>55246393</t>
   </si>
   <si>
@@ -156,18 +156,6 @@
   </si>
   <si>
     <t>LIA MARGARITA GOMEZ ROMERO</t>
-  </si>
-  <si>
-    <t>30838339</t>
-  </si>
-  <si>
-    <t>YOHANA DE LA CANDELARIA MORELOS CABARCAS</t>
-  </si>
-  <si>
-    <t>1047392232</t>
-  </si>
-  <si>
-    <t>YERLY GARCIA DE LA CRUZ</t>
   </si>
   <si>
     <t>1007855562</t>
@@ -278,7 +266,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -291,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -493,23 +481,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,10 +525,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F5FF95-4A90-C269-0196-CF7E70C2FA0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705CFC05-8D3F-4996-27F9-5F6A96AE6788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,8 +932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EECD3-802F-462A-9D7A-02272E7FDDCE}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06DE29-815C-445F-BCCE-540DD77D087C}">
+  <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -969,7 +957,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1014,7 +1002,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1046,12 +1034,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1344073</v>
+        <v>1222647</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1062,14 +1050,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1099,13 +1087,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1122,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>36064</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1612145</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1145,10 +1133,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1612145</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1168,10 +1156,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>64486</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1612145</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1182,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>36064</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>1612145</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1205,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>113880</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>2847000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1228,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>64486</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1612145</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1251,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>64486</v>
+        <v>42108</v>
       </c>
       <c r="G22" s="18">
-        <v>1612145</v>
+        <v>1314055</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1274,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>42108</v>
       </c>
       <c r="G23" s="18">
-        <v>1612145</v>
+        <v>1314055</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1297,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
-        <v>64486</v>
+        <v>42108</v>
       </c>
       <c r="G24" s="18">
-        <v>901582</v>
+        <v>1314055</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1320,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
-        <v>56940</v>
+        <v>42108</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>1314055</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1343,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>42108</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>1314055</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1366,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18">
-        <v>42108</v>
+        <v>56940</v>
       </c>
       <c r="G27" s="18">
-        <v>1314055</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1389,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18">
-        <v>42108</v>
+        <v>64486</v>
       </c>
       <c r="G28" s="18">
-        <v>1314055</v>
+        <v>1612145</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1412,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="18">
-        <v>42108</v>
+        <v>113880</v>
       </c>
       <c r="G29" s="18">
-        <v>1314055</v>
+        <v>2847000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1435,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
-        <v>42108</v>
+        <v>64486</v>
       </c>
       <c r="G30" s="18">
-        <v>1314055</v>
+        <v>1612145</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1458,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>42108</v>
+        <v>64486</v>
       </c>
       <c r="G31" s="18">
-        <v>1314055</v>
+        <v>1612145</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1481,13 +1469,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>56940</v>
@@ -1504,16 +1492,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>56940</v>
       </c>
       <c r="G33" s="18">
         <v>1423500</v>
@@ -1533,7 +1521,7 @@
         <v>37</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>56940</v>
@@ -1556,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1573,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>56940</v>
@@ -1596,16 +1584,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>56940</v>
       </c>
       <c r="G37" s="18">
         <v>1423500</v>
@@ -1619,13 +1607,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
         <v>56940</v>
@@ -1638,102 +1626,56 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
+      <c r="E39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G39" s="24">
         <v>1423500</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G41" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8904033580.xlsx
+++ b/Data/EC/NIT-8904033580.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC7E535-FF0F-4559-9A1E-126889A01BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A2CCBAC-8C25-469B-93E2-926EF6230E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C3A9789-6C5F-46CC-B61C-E83F88654567}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AEC45E30-12CC-462C-9B9B-BB9262568728}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -123,51 +123,6 @@
   </si>
   <si>
     <t>1907</t>
-  </si>
-  <si>
-    <t>45754004</t>
-  </si>
-  <si>
-    <t>INES PEREZ BARRIOS</t>
-  </si>
-  <si>
-    <t>2508</t>
-  </si>
-  <si>
-    <t>45487934</t>
-  </si>
-  <si>
-    <t>SANDRA DEL CARMEN ZUÑIGA ZAPATA</t>
-  </si>
-  <si>
-    <t>45515834</t>
-  </si>
-  <si>
-    <t>CLAUDIA PATRICIA VARGAS MARTINEZ</t>
-  </si>
-  <si>
-    <t>55246393</t>
-  </si>
-  <si>
-    <t>DIANA ZENITH GUISADO FERNANDEZ</t>
-  </si>
-  <si>
-    <t>64476685</t>
-  </si>
-  <si>
-    <t>LIA MARGARITA GOMEZ ROMERO</t>
-  </si>
-  <si>
-    <t>1007855562</t>
-  </si>
-  <si>
-    <t>ELIANA STEPHANNY CANO CASTELLON</t>
-  </si>
-  <si>
-    <t>1047465220</t>
-  </si>
-  <si>
-    <t>MAYERLIS DEL CARMEN PERNETT DEULUFEUT</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -266,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -281,7 +234,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,29 +430,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,19 +471,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705CFC05-8D3F-4996-27F9-5F6A96AE6788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4230AE-49A8-E0C1-75CF-9A2D5B0562A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06DE29-815C-445F-BCCE-540DD77D087C}">
-  <dimension ref="B2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE4F46A-AF2A-4CCE-9009-4CC5AD4B0FB2}">
+  <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -955,57 +916,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8904033580</v>
       </c>
@@ -1034,12 +995,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1222647</v>
+        <v>402849</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1050,17 +1011,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1087,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1106,18 +1067,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>36064</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1612145</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1129,18 +1090,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>31249</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1612145</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1152,18 +1113,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>31249</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1423500</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1175,18 +1136,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>31249</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1423500</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1198,18 +1159,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>31249</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1423500</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1221,18 +1182,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>31249</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1423500</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1244,18 +1205,18 @@
       <c r="D22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>42108</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1314055</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1267,18 +1228,18 @@
       <c r="D23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>42108</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1314055</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1290,18 +1251,18 @@
       <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>42108</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1314055</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1313,369 +1274,70 @@
       <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>42108</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1314055</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="26">
         <v>42108</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="26">
         <v>1314055</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="18">
-        <v>64486</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1612145</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="18">
-        <v>113880</v>
-      </c>
-      <c r="G29" s="18">
-        <v>2847000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="18">
-        <v>64486</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1612145</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="18">
-        <v>64486</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1612145</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="B31" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="H31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="B32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="17" t="s">
+      <c r="C32" s="34"/>
+      <c r="H32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G39" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="H44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
